--- a/Nevasa/InformeCompleto/20250811/20250811_informe_completo_results.xlsx
+++ b/Nevasa/InformeCompleto/20250811/20250811_informe_completo_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,26 +496,26 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45881</v>
+        <v>45880</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>45880</v>
       </c>
       <c r="D2" t="n">
-        <v>5.01</v>
+        <v>0.45</v>
       </c>
       <c r="E2" t="n">
-        <v>1677</v>
+        <v>22099508</v>
       </c>
       <c r="F2" t="n">
-        <v>44082744</v>
+        <v>22040000</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BLATM-F</t>
+          <t>SMT_29082025_11082025_0.45_BCI</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -536,26 +536,26 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45881</v>
+        <v>45880</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45880</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0.41</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>455062183</v>
       </c>
       <c r="F3" t="n">
-        <v>38688871</v>
+        <v>455000000</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BBTG-G1220</t>
+          <t>PACTO_12082025_11082025_0.41_AHORRO</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>RENTA FIJA</t>
+          <t>PACTO</t>
         </is>
       </c>
     </row>
@@ -576,36 +576,36 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45880</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.01</v>
       </c>
       <c r="E4" t="n">
-        <v>50810167.908</v>
+        <v>1677</v>
       </c>
       <c r="F4" t="n">
-        <v>50794294</v>
+        <v>44082744</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CENCOSUD</t>
+          <t>BLATM-F</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SIMULTANEA</t>
+          <t>RENTA FIJA</t>
         </is>
       </c>
     </row>
@@ -616,36 +616,36 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>45880</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>49434410.256</v>
+        <v>1000</v>
       </c>
       <c r="F5" t="n">
-        <v>49418970</v>
+        <v>38688871</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SQM-B</t>
+          <t>BBTG-G1220</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>VENTA</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>SIMULTANEA</t>
+          <t>RENTA FIJA</t>
         </is>
       </c>
     </row>
@@ -665,17 +665,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>82665579.066</v>
+        <v>50810167.908</v>
       </c>
       <c r="F6" t="n">
-        <v>82626829</v>
+        <v>50794294</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ITAUCL</t>
+          <t>CENCOSUD</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -705,17 +705,17 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>181776158.72</v>
+        <v>49434410.256</v>
       </c>
       <c r="F7" t="n">
-        <v>181689129</v>
+        <v>49418970</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ITAUCL</t>
+          <t>SQM-B</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -745,17 +745,17 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>17168100</v>
+        <v>82665579.066</v>
       </c>
       <c r="F8" t="n">
-        <v>17131500</v>
+        <v>82626829</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BSANTANDER</t>
+          <t>ITAUCL</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -782,30 +782,30 @@
         <v>45880</v>
       </c>
       <c r="D9" t="n">
-        <v>0.341</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>250000000</v>
+        <v>181776158.72</v>
       </c>
       <c r="F9" t="n">
-        <v>249971600</v>
+        <v>181689129</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BNPDBC120825</t>
+          <t>ITAUCL</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>RENTA VARIABLE</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -822,30 +822,30 @@
         <v>45880</v>
       </c>
       <c r="D10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1000000000</v>
+        <v>17168100</v>
       </c>
       <c r="F10" t="n">
-        <v>999880000</v>
+        <v>17131500</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BNPDBC120825</t>
+          <t>BSANTANDER</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>COMPRA</t>
+          <t>VENTA</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>RENTA VARIABLE</t>
+          <t>SIMULTANEA</t>
         </is>
       </c>
     </row>
@@ -862,20 +862,20 @@
         <v>45880</v>
       </c>
       <c r="D11" t="n">
-        <v>0.37</v>
+        <v>0.341</v>
       </c>
       <c r="E11" t="n">
-        <v>500000000</v>
+        <v>250000000</v>
       </c>
       <c r="F11" t="n">
-        <v>499568700</v>
+        <v>249971600</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BNPDBC180825</t>
+          <t>BNPDBC120825</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -902,28 +902,268 @@
         <v>45880</v>
       </c>
       <c r="D12" t="n">
-        <v>0.385</v>
+        <v>0.36</v>
       </c>
       <c r="E12" t="n">
         <v>1000000000</v>
       </c>
       <c r="F12" t="n">
+        <v>999880000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>BNPDBC120825</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E13" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>499568700</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>BNPDBC180825</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="F14" t="n">
         <v>998590400</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>BNPDBC220825</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>COMPRA</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16979.03</v>
+      </c>
+      <c r="E15" t="n">
+        <v>855</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14517071</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16979.04</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3252</v>
+      </c>
+      <c r="F16" t="n">
+        <v>55215838</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16979.04</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8215</v>
+      </c>
+      <c r="F17" t="n">
+        <v>139482814</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RENTA VARIABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FONDO DE INVERSION NEVASA AHORRO</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16446.63</v>
+      </c>
+      <c r="E18" t="n">
+        <v>311</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5114902</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CFINHRFLB</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>RENTA VARIABLE</t>
         </is>
